--- a/2015_2016_Informatique/IdeesProjets.xlsx
+++ b/2015_2016_Informatique/IdeesProjets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Modélisation d'une poutre</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Compression de Huffman</t>
+  </si>
+  <si>
+    <t>Analyse de trame Wireshark… Hacker en herbe ou mise en garde de probleme de sécurité ?</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
